--- a/medicine/Handicap/Bonhomme_(film)/Bonhomme_(film).xlsx
+++ b/medicine/Handicap/Bonhomme_(film)/Bonhomme_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonhomme est une comédie dramatique française réalisée par Marion Vernoux, sortie en 2018[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonhomme est une comédie dramatique française réalisée par Marion Vernoux, sortie en 2018.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Piotr est victime d'un choc frontal lors d'un accident de la circulation. S'ensuit une perte générale de son  intellect. Après un coma suivi d'un traitement en milieu médicalisé, il va devoir se reconstruire au quotidien, entre les tentatives de remémorisation du passé et les nouveaux acquis qui constituent le processus d'une renaissance quasi complète. Le chemin pour y parvenir est semé d'embûches et de succès, d'espoirs et de désillusions, de joies mais aussi de peines assumées par son amie Marilyn, qui lui voue un amour intact et qui ne connaît ni résignation ni abandon.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Bonhomme
 Réalisation : Marion Vernoux
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nicolas Duvauchelle : Piotr
 Ana Girardot : Marilyn
